--- a/LinkBuilder.xlsx
+++ b/LinkBuilder.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Link Prefix</t>
-  </si>
-  <si>
-    <t>" target="_blank"&gt;</t>
   </si>
   <si>
     <t>243 MB</t>
@@ -119,15 +116,9 @@
     <t>The Secret Life of Amoeba.pdf</t>
   </si>
   <si>
-    <t>Create the hyperlink using the link in A2, other link data in C2 and the text in column D</t>
-  </si>
-  <si>
     <t>The Short but Influential Life of Flash.zip</t>
   </si>
   <si>
-    <t>Create the html that will be displayed in the link</t>
-  </si>
-  <si>
     <t>List of filenames</t>
   </si>
   <si>
@@ -138,13 +129,653 @@
   </si>
   <si>
     <t>Link Middle/End</t>
+  </si>
+  <si>
+    <t>Create the html to be displayed in the link</t>
+  </si>
+  <si>
+    <t>"target="_blank"&gt;</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>="AddedData: "&amp;SUBSTITUTE((LEFT(A6,FIND(".",A6)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B6</t>
+  </si>
+  <si>
+    <t>=$A$3&amp;A6&amp;$C$3&amp;C6&amp;"&lt;/a&gt;&lt;/br&gt;"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The "&amp;" operator performs concatenation (adds the values which are adjacent to the symbol).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Text data is defined by surrounding with quotes.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Create the hyperlink using link data in A3 &amp; C3, text from column D, closing tags from strings.</t>
+  </si>
+  <si>
+    <t>Preview Hyperlink</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The formula in Column E: =$A$3&amp;A6&amp;$C$3&amp;C6&amp;"&lt;/a&gt;&lt;/br&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This concatenates the cells into a fully formed hyperlink and adds a linebreak. Note the optional use of "$" before Row Number and/or Column Letters. 
+This causes those cells to be "fixed references", i.e. not change during fill operations.
+For example, by using $A$3, we ensure that the first part of the URL in A2 will not change when filling down in Column D.  On the other hand, for the second part of the hyperlink, the filename from Column A will increment in a fill/paste operation.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The formula in Column C: ="AddedData: "&amp;SUBSTITUTE((LEFT(A4,FIND(".",A4)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This removes the extension from the filenames, concatenates a dash with HTML spaces to the filename, then concatenates the filesize from Column B to the string.
+"AddedData..." is optional.  It is not used in rows 11-13.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>MMob_OBC_WIC_SpkrsNotes_Apr2018_Session_2.zip</t>
+  </si>
+  <si>
+    <t>4 MB</t>
+  </si>
+  <si>
+    <t>Remove the extension and part of the filename using delimiters:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Explanation:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The formula in Column C: ="PDF: "&amp;SUBSTITUTE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MID(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LEFT(A23,FIND(".",A23)-1))</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 1,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND(".",A23)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LEFT(A23,FIND(".",A23)-1))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Left():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How many charaters on the left side of the string to keep?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Find the location of the period.
+Subtract 1 from the result of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and keep that many characters from the left side of the string.  So now we have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MMob_OBC_WIC_SpkrsNotes_Apr2018_Session_2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a method to look for an instance of a string.  In this case, we are looking for the first instance of an underscore.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not have a "which one do you want?" parameter, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Substitute()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does. So we use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Substitute()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to replace the target instance of the delimiter with a character that is not in the string.
+We then use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to return the postion of the substituted character.
+It returns the position of the character if finds.  The first underscore in A23 is at position 5.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",3))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would look for the 3rd instance, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND(".",A23)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will return the position of the period, which is our second delimiter, since there is only one, we don't need to search for an instance of it.
+We could've have used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",xx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) to use another underscore for our second delimiter.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finally, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mid()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will grab a specified number of characters moving right from a specified location in a string.
+We are giving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mid()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> our extentionless string and telling it to start at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(the location of the first underscore + 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(the number of characters to grab) = (the location of the period) - (the location of the first underscore) - 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +818,111 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0521F1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +932,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -214,6 +950,36 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -223,7 +989,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -238,13 +1004,82 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -259,7 +1094,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -268,10 +1103,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -283,13 +1118,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -301,21 +1151,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -328,30 +1163,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -361,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,84 +1191,153 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F4F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEF1E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAE2F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -601,6 +1487,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0033CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -614,28 +1505,70 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>212910</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1411940</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>4755795</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="7520"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438032" y="145677"/>
+          <a:ext cx="4352381" cy="2386853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3675530</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>313765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5401236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="212910" y="3462618"/>
-          <a:ext cx="13424648" cy="3608294"/>
+          <a:off x="11710148" y="1938618"/>
+          <a:ext cx="1725706" cy="403411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,155 +1603,1056 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The "&amp;"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> operator performs concatenation (adds the values which are adjacent to the symbol).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Text data is defined by surrounding with quotes.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> forumula in Col C is: ="AddedData: "&amp;SUBSTITUTE((LEFT(A4,FIND(".",A4)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>This removes the extension from the files, concats a space and a dash to the filename, then concats the filesize to the string.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>"AddedData..." is optional.  It was removed in rows 8-10.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The formula in Col E is =$A$2&amp;A5&amp;$C$2&amp;D5&amp;"&lt;/a&gt;&lt;/br&gt;"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>This concatenates the listed cells into a fully formed hyperlink and adds a linebreak. Note the optional use of "$" before Row Number and/or Column Letters.  This causes those cells to not change during fill operations.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>For example, by using $A$2, we ensure that the first part of the URL in A2 will not change when filling down in Column E.  On the other hand ,  Col A will increment in a fill operation, adding the filname from Column A to the hyperlink URL.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Resulting Links</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1837765</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>840442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6190146</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>93247</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2902325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1187823</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14063383" y="3798795"/>
-          <a:ext cx="4352381" cy="2580952"/>
+          <a:off x="840442" y="381001"/>
+          <a:ext cx="5748618" cy="806822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Concatenate: Join things together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>="Conatenate"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>": Join"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"things "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"together."</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107256</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107256" y="15694611"/>
+          <a:ext cx="5805571" cy="1838716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FIND()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FIND()  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>returns the position (as a number) of the first occurrence of one text string inside another.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If the text is not found, FIND() returns a #VALUE error.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FIND </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> case-sensitive and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>does not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> support wildcards.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=FIND (find_text, within_text, [start_num])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arguments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>find_text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The text to find.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>within_text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The text to search within.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>start_num</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - [optional] The starting position in the text to search. Optional, defaults to 1.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>677182</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8287097</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11507107" y="15182323"/>
+          <a:ext cx="7609915" cy="1810278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Substitute()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Replaces text in a given string by matching</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=SUBSTITUTE (text, old_text, new_text, [instance])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arguments </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The text to change.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>old_text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The text to replace.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new_text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The text to replace with.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - [optional] The instance of old_text to replace with new_text.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If not supplied, all instances of old_text are replaced with new_text.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1401782</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527539</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981109" y="15702274"/>
+          <a:ext cx="5382949" cy="1472033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MID()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Extracts a specified number of characters moving right from a specified location in a string.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=MID (text, start_num, num_chars)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arguments </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The text to extract from.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>start_num</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The location of the first character to extract.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>num_chars</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - The number of characters to extract.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1111,328 +2945,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="5" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="171.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="198.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="B6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>"AddedData: "&amp;SUBSTITUTE((LEFT(A7,FIND(".",A7)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B7</f>
+        <v>AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" ref="D7:D15" si="0">$A$3&amp;A7&amp;$C$3&amp;C7&amp;"&lt;/a&gt;&lt;/br&gt;"</f>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Dogs.zip"target="_blank"&gt;AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E7" s="42" t="str">
+        <f>SUBSTITUTE(C7,"&amp;nbsp;","")</f>
+        <v>AddedData: The Secret Life of Dogs - &lt;1 MB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f t="shared" ref="C8:C14" si="1">"PowerPoint: "&amp;SUBSTITUTE((LEFT(A8,FIND(".",A8)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B8</f>
+        <v>PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Cats.zip"target="_blank"&gt;PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E8" s="42" t="str">
+        <f>SUBSTITUTE(C8,"&amp;nbsp;","")</f>
+        <v>PowerPoint: The Secret Life of Cats - 12 MB</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>"PDF: "&amp;SUBSTITUTE((LEFT(A9,FIND(".",A9)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B9</f>
+        <v>PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Amoeba.pdf"target="_blank"&gt;PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E9" s="42" t="str">
+        <f>SUBSTITUTE(C9,"&amp;nbsp;","")</f>
+        <v>PDF: The Secret Life of Amoeba - 282 MB</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>"PDF: "&amp;SUBSTITUTE((LEFT(A10,FIND(".",A10)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B10</f>
+        <v>PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/The Short but Influential Life of Flash.zip"target="_blank"&gt;PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E10" s="42" t="str">
+        <f>SUBSTITUTE(C10,"&amp;nbsp;","")</f>
+        <v>PDF: The Short but Influential Life of Flash - 110 MB</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23" t="str">
-        <f>"AddedData: "&amp;SUBSTITUTE((LEFT(A4,FIND(".",A4)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B4</f>
-        <v>AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB</v>
-      </c>
-      <c r="D4" s="24" t="str">
-        <f>$A$2&amp;A4&amp;$C$2&amp;C4&amp;"&lt;/a&gt;&lt;/br&gt;"</f>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Dogs.zip" target="_blank"&gt;AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="22" t="str">
-        <f t="shared" ref="C5:C12" si="0">"PowerPoint: "&amp;SUBSTITUTE((LEFT(A5,FIND(".",A5)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B5</f>
-        <v>PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB</v>
-      </c>
-      <c r="D5" s="25" t="str">
-        <f t="shared" ref="D5:D12" si="1">$A$2&amp;A5&amp;$C$2&amp;C5&amp;"&lt;/a&gt;&lt;/br&gt;"</f>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Cats.zip" target="_blank"&gt;PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="29" t="str">
-        <f>"PDF: "&amp;SUBSTITUTE((LEFT(A6,FIND(".",A6)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B6</f>
-        <v>PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB</v>
-      </c>
-      <c r="D6" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Amoeba.pdf" target="_blank"&gt;PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22" t="str">
-        <f>"PDF: "&amp;SUBSTITUTE((LEFT(A7,FIND(".",A7)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B7</f>
-        <v>PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB</v>
-      </c>
-      <c r="D7" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/The Short but Influential Life of Flash.zip" target="_blank"&gt;PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="C11" s="17" t="str">
+        <f>SUBSTITUTE((LEFT(A11,FIND(".",A11)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B11</f>
+        <v>Handout 1&amp;nbsp; - &amp;nbsp;242 MB</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_1.zip"target="_blank"&gt;Handout 1&amp;nbsp; - &amp;nbsp;242 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E11" s="42" t="str">
+        <f>SUBSTITUTE(C11,"&amp;nbsp;","")</f>
+        <v>Handout 1 - 242 MB</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22" t="str">
-        <f>SUBSTITUTE((LEFT(A8,FIND(".",A8)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B8</f>
-        <v>Handout 1&amp;nbsp; - &amp;nbsp;242 MB</v>
-      </c>
-      <c r="D8" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_1.zip" target="_blank"&gt;Handout 1&amp;nbsp; - &amp;nbsp;242 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="C12" s="17" t="str">
+        <f t="shared" ref="C12:C13" si="2">SUBSTITUTE((LEFT(A12,FIND(".",A12)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B12</f>
+        <v>Handout 2&amp;nbsp; - &amp;nbsp;142 MB</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_2.zip"target="_blank"&gt;Handout 2&amp;nbsp; - &amp;nbsp;142 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E12" s="42" t="str">
+        <f>SUBSTITUTE(C12,"&amp;nbsp;","")</f>
+        <v>Handout 2 - 142 MB</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f t="shared" ref="C9:C10" si="2">SUBSTITUTE((LEFT(A9,FIND(".",A9)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B9</f>
-        <v>Handout 2&amp;nbsp; - &amp;nbsp;142 MB</v>
-      </c>
-      <c r="D9" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_2.zip" target="_blank"&gt;Handout 2&amp;nbsp; - &amp;nbsp;142 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="22" t="str">
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Handout 3&amp;nbsp; - &amp;nbsp;18 MB</v>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_3.zip"target="_blank"&gt;Handout 3&amp;nbsp; - &amp;nbsp;18 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E13" s="42" t="str">
+        <f>SUBSTITUTE(C13,"&amp;nbsp;","")</f>
+        <v>Handout 3 - 18 MB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_3.zip" target="_blank"&gt;Handout 3&amp;nbsp; - &amp;nbsp;18 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="22" t="str">
+        <v>PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB</v>
+      </c>
+      <c r="D14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB</v>
-      </c>
-      <c r="D11" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4.zip" target="_blank"&gt;PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="22" t="str">
+        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4.zip"target="_blank"&gt;PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E14" s="42" t="str">
+        <f>SUBSTITUTE(C14,"&amp;nbsp;","")</f>
+        <v>PowerPoint: Handout 4 - 243 MB</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f>"PowerPoint: "&amp;SUBSTITUTE((LEFT(A15,FIND(".",A15)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B15</f>
+        <v>PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB</v>
+      </c>
+      <c r="D15" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB</v>
-      </c>
-      <c r="D12" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4b.zip" target="_blank"&gt;PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4b.zip"target="_blank"&gt;PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="E15" s="43" t="str">
+        <f>SUBSTITUTE(C15,"&amp;nbsp;","")</f>
+        <v>PowerPoint: Handout 4b - 13 MB</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="51" t="str">
+        <f>"PDF: "&amp;SUBSTITUTE(MID((LEFT(A23,FIND(".",A23)-1)),FIND("~",SUBSTITUTE(A23,"_","~",1)) + 1,FIND(".",A23) - FIND("~",SUBSTITUTE(A23,"_","~",1)) - 1),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23</f>
+        <v>PDF: OBC WIC SpkrsNotes Apr2018 Session 2&amp;nbsp; - &amp;nbsp;4 MB</v>
+      </c>
+      <c r="D23" s="52" t="str">
+        <f>$A$3&amp;A23&amp;$C$3&amp;C23&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href="http://aplaceontheweb.com/adir/MMob_OBC_WIC_SpkrsNotes_Apr2018_Session_2.zip"target="_blank"&gt;PDF: OBC WIC SpkrsNotes Apr2018 Session 2&amp;nbsp; - &amp;nbsp;4 MB&lt;/a&gt;</v>
+      </c>
+      <c r="E23" s="53" t="str">
+        <f t="shared" ref="E23" si="3">SUBSTITUTE(C23,"&amp;nbsp;","")</f>
+        <v>PDF: OBC WIC SpkrsNotes Apr2018 Session 2 - 4 MB</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5" s="23" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:5" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
     </row>
   </sheetData>
   <sortState ref="A3:A10">
     <sortCondition ref="A3:A10"/>
   </sortState>
-  <conditionalFormatting sqref="B11:B12 A7:B7">
-    <cfRule type="expression" dxfId="20" priority="130">
+  <mergeCells count="5">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B14:B15 A10:B10">
+    <cfRule type="expression" dxfId="23" priority="133">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12 A7:B7">
-    <cfRule type="expression" dxfId="19" priority="132">
+  <conditionalFormatting sqref="B14:B15 A10:B10">
+    <cfRule type="expression" dxfId="22" priority="135">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12 A7:B7">
-    <cfRule type="expression" dxfId="18" priority="131">
+  <conditionalFormatting sqref="B14:B15 A10:B10">
+    <cfRule type="expression" dxfId="21" priority="134">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5 B10 B8 A8:A12">
-    <cfRule type="expression" dxfId="17" priority="37">
+  <conditionalFormatting sqref="A8:B8 B13 B11 A11:A15">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5 B10 B8 A8:A12">
-    <cfRule type="expression" dxfId="16" priority="39">
+  <conditionalFormatting sqref="A8:B8 B13 B11 A11:A15">
+    <cfRule type="expression" dxfId="19" priority="42">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5 B10 B8 A8:A12">
-    <cfRule type="expression" dxfId="15" priority="38">
+  <conditionalFormatting sqref="A8:B8 B13 B11 A11:A15">
+    <cfRule type="expression" dxfId="18" priority="41">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="14" priority="31">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="17" priority="34">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="13" priority="33">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="12" priority="32">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="14" priority="28">
+      <formula>MOD(ROW(),3)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="13" priority="30">
+      <formula>MOD(ROW(),3)=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="12" priority="29">
+      <formula>MOD(ROW(),3)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="10" priority="27">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="9" priority="26">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
@@ -1452,32 +3389,32 @@
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="5" priority="19">
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="4" priority="21">
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="3" priority="20">
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
@@ -1502,73 +3439,73 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="10" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+    <row r="18" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="20" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/LinkBuilder.xlsx
+++ b/LinkBuilder.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
-    <sheet name="Video List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resources!#REF!</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Link Prefix</t>
   </si>
@@ -37,50 +36,6 @@
   </si>
   <si>
     <t>13 MB</t>
-  </si>
-  <si>
-    <t>Session 2</t>
-  </si>
-  <si>
-    <t>Session 5</t>
-  </si>
-  <si>
-    <t>Session 6</t>
-  </si>
-  <si>
-    <t>Session 7</t>
-  </si>
-  <si>
-    <t>Slide 24  - Positioning</t>
-  </si>
-  <si>
-    <t>Slide 26 - Latch</t>
-  </si>
-  <si>
-    <t>Slide 9 - Milk Let Down Animation</t>
-  </si>
-  <si>
-    <t>Slide 46 - 2 Sections in the Video:
-Foley Cup Feeding
-Cup Feeding with a Regular Cup</t>
-  </si>
-  <si>
-    <t>Slide 47 - Finger Feeding</t>
-  </si>
-  <si>
-    <t>Slide 48 - Supplementation at the Breast</t>
-  </si>
-  <si>
-    <t>Slide 21 - Paced Bottle Feeding</t>
-  </si>
-  <si>
-    <t>Slide 29 - Nipple Shield Use</t>
-  </si>
-  <si>
-    <t>Slide 27 - Manual Milk Expression</t>
-  </si>
-  <si>
-    <t>Slide 30 - Pump Expression</t>
   </si>
   <si>
     <t>18 MB</t>
@@ -932,7 +887,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -995,21 +950,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1178,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1195,26 +1135,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,10 +1164,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1256,7 +1177,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,53 +1186,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,15 +2002,6 @@
             </a:rPr>
             <a:t> support wildcards.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr fontAlgn="base"/>
@@ -2963,21 +2875,21 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="26" t="s">
-        <v>35</v>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="27" t="s">
-        <v>37</v>
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2986,212 +2898,212 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>44</v>
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="41"/>
+      <c r="A6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="10" t="str">
         <f>"AddedData: "&amp;SUBSTITUTE((LEFT(A7,FIND(".",A7)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B7</f>
         <v>AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" ref="D7:D15" si="0">$A$3&amp;A7&amp;$C$3&amp;C7&amp;"&lt;/a&gt;&lt;/br&gt;"</f>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Dogs.zip"target="_blank"&gt;AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E7" s="42" t="str">
-        <f>SUBSTITUTE(C7,"&amp;nbsp;","")</f>
+      <c r="E7" s="35" t="str">
+        <f t="shared" ref="E7:E15" si="1">SUBSTITUTE(C7,"&amp;nbsp;","")</f>
         <v>AddedData: The Secret Life of Dogs - &lt;1 MB</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="str">
-        <f t="shared" ref="C8:C14" si="1">"PowerPoint: "&amp;SUBSTITUTE((LEFT(A8,FIND(".",A8)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B8</f>
+      <c r="C8" s="10" t="str">
+        <f t="shared" ref="C8:C14" si="2">"PowerPoint: "&amp;SUBSTITUTE((LEFT(A8,FIND(".",A8)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B8</f>
         <v>PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Cats.zip"target="_blank"&gt;PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E8" s="42" t="str">
-        <f>SUBSTITUTE(C8,"&amp;nbsp;","")</f>
+      <c r="E8" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>PowerPoint: The Secret Life of Cats - 12 MB</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="15" t="str">
         <f>"PDF: "&amp;SUBSTITUTE((LEFT(A9,FIND(".",A9)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B9</f>
         <v>PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB</v>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Amoeba.pdf"target="_blank"&gt;PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E9" s="42" t="str">
-        <f>SUBSTITUTE(C9,"&amp;nbsp;","")</f>
+      <c r="E9" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>PDF: The Secret Life of Amoeba - 282 MB</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17" t="str">
+      <c r="A10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="str">
         <f>"PDF: "&amp;SUBSTITUTE((LEFT(A10,FIND(".",A10)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B10</f>
         <v>PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB</v>
       </c>
-      <c r="D10" s="18" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Short but Influential Life of Flash.zip"target="_blank"&gt;PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E10" s="42" t="str">
-        <f>SUBSTITUTE(C10,"&amp;nbsp;","")</f>
+      <c r="E10" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>PDF: The Short but Influential Life of Flash - 110 MB</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="17" t="str">
+      <c r="A11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="str">
         <f>SUBSTITUTE((LEFT(A11,FIND(".",A11)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B11</f>
         <v>Handout 1&amp;nbsp; - &amp;nbsp;242 MB</v>
       </c>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_1.zip"target="_blank"&gt;Handout 1&amp;nbsp; - &amp;nbsp;242 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E11" s="42" t="str">
-        <f>SUBSTITUTE(C11,"&amp;nbsp;","")</f>
+      <c r="E11" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>Handout 1 - 242 MB</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="17" t="str">
-        <f t="shared" ref="C12:C13" si="2">SUBSTITUTE((LEFT(A12,FIND(".",A12)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B12</f>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" ref="C12:C13" si="3">SUBSTITUTE((LEFT(A12,FIND(".",A12)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B12</f>
         <v>Handout 2&amp;nbsp; - &amp;nbsp;142 MB</v>
       </c>
-      <c r="D12" s="18" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_2.zip"target="_blank"&gt;Handout 2&amp;nbsp; - &amp;nbsp;142 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E12" s="42" t="str">
-        <f>SUBSTITUTE(C12,"&amp;nbsp;","")</f>
+      <c r="E12" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>Handout 2 - 142 MB</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17" t="str">
-        <f t="shared" si="2"/>
+      <c r="A13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Handout 3&amp;nbsp; - &amp;nbsp;18 MB</v>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_3.zip"target="_blank"&gt;Handout 3&amp;nbsp; - &amp;nbsp;18 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E13" s="42" t="str">
-        <f>SUBSTITUTE(C13,"&amp;nbsp;","")</f>
+      <c r="E13" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>Handout 3 - 18 MB</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB</v>
       </c>
-      <c r="D14" s="18" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4.zip"target="_blank"&gt;PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E14" s="42" t="str">
-        <f>SUBSTITUTE(C14,"&amp;nbsp;","")</f>
+      <c r="E14" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>PowerPoint: Handout 4 - 243 MB</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="8" t="str">
         <f>"PowerPoint: "&amp;SUBSTITUTE((LEFT(A15,FIND(".",A15)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B15</f>
         <v>PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB</v>
       </c>
-      <c r="D15" s="40" t="str">
+      <c r="D15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4b.zip"target="_blank"&gt;PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E15" s="43" t="str">
-        <f>SUBSTITUTE(C15,"&amp;nbsp;","")</f>
+      <c r="E15" s="36" t="str">
+        <f t="shared" si="1"/>
         <v>PowerPoint: Handout 4b - 13 MB</v>
       </c>
     </row>
@@ -3201,27 +3113,27 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+    <row r="17" spans="1:5" s="16" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
-    <row r="18" spans="1:5" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+    <row r="18" spans="1:5" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -3230,63 +3142,63 @@
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="A21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="54" t="s">
-        <v>49</v>
+      <c r="A22" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="51" t="str">
+      <c r="A23" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="42" t="str">
         <f>"PDF: "&amp;SUBSTITUTE(MID((LEFT(A23,FIND(".",A23)-1)),FIND("~",SUBSTITUTE(A23,"_","~",1)) + 1,FIND(".",A23) - FIND("~",SUBSTITUTE(A23,"_","~",1)) - 1),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23</f>
         <v>PDF: OBC WIC SpkrsNotes Apr2018 Session 2&amp;nbsp; - &amp;nbsp;4 MB</v>
       </c>
-      <c r="D23" s="52" t="str">
+      <c r="D23" s="43" t="str">
         <f>$A$3&amp;A23&amp;$C$3&amp;C23&amp;"&lt;/a&gt;"</f>
         <v>&lt;a href="http://aplaceontheweb.com/adir/MMob_OBC_WIC_SpkrsNotes_Apr2018_Session_2.zip"target="_blank"&gt;PDF: OBC WIC SpkrsNotes Apr2018 Session 2&amp;nbsp; - &amp;nbsp;4 MB&lt;/a&gt;</v>
       </c>
-      <c r="E23" s="53" t="str">
-        <f t="shared" ref="E23" si="3">SUBSTITUTE(C23,"&amp;nbsp;","")</f>
+      <c r="E23" s="44" t="str">
+        <f t="shared" ref="E23" si="4">SUBSTITUTE(C23,"&amp;nbsp;","")</f>
         <v>PDF: OBC WIC SpkrsNotes Apr2018 Session 2 - 4 MB</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" s="23" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+    <row r="25" spans="1:5" s="16" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
-    <row r="26" spans="1:5" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+    <row r="26" spans="1:5" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
   </sheetData>
   <sortState ref="A3:A10">
@@ -3423,93 +3335,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/LinkBuilder.xlsx
+++ b/LinkBuilder.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resources" sheetId="1" r:id="rId1"/>
+    <sheet name="Search and Concatenate" sheetId="3" r:id="rId1"/>
+    <sheet name="Delimiters" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resources!#REF!</definedName>
-    <definedName name="Radiology" localSheetId="0">Resources!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Delimiters!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Search and Concatenate'!#REF!</definedName>
+    <definedName name="Radiology" localSheetId="1">Delimiters!#REF!</definedName>
+    <definedName name="Radiology" localSheetId="0">'Search and Concatenate'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Link Prefix</t>
   </si>
@@ -190,12 +193,12 @@
     <t>MMob_OBC_WIC_SpkrsNotes_Apr2018_Session_2.zip</t>
   </si>
   <si>
-    <t>4 MB</t>
-  </si>
-  <si>
-    <t>Remove the extension and part of the filename using delimiters:</t>
-  </si>
-  <si>
+    <t>More Complex: Remove the extension and part of the filename using delimiters:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finally, </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -205,140 +208,91 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Explanation:
-</t>
+      <t>Mid()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will grab a specified number of characters moving right from a specified location in a string.
+We are giving </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The formula in Column C: ="PDF: "&amp;SUBSTITUTE(</t>
+      <t>Mid()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extentionless string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and telling it to start at </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MID(</t>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(the location of the first underscore + 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(LEFT(A23,FIND(".",A23)-1))</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 1,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FIND(".",A23)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23</t>
+      <t>(the number of characters to grab) = (the location of the period) - (the location of the first underscore) - 1.</t>
     </r>
     <r>
       <rPr>
@@ -351,8 +305,76 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
+  </si>
+  <si>
+    <t>Session_1_MilkMob_OBCSpeakersNotes_Feb2018.pdf</t>
+  </si>
+  <si>
+    <t>"Session": Grab 7 characters to the left of delimiter 1</t>
+  </si>
+  <si>
+    <t>"OBCSpeakersNote": Grab 7 characters to the left of delimiter 4</t>
+  </si>
+  <si>
+    <t>"Update": Grab all characters to the right of delimiter 5</t>
+  </si>
+  <si>
+    <t>"Session #": Grab Character between first 2 delimiters</t>
+  </si>
+  <si>
+    <t>"MilkMob": Grab characters between delimiters 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Could also use =MID(A28,1,SEARCH(".",A28)-1)</t>
+  </si>
+  <si>
+    <t>First Element</t>
+  </si>
+  <si>
+    <t>2nd Element.  Once Forumla is established, only need to change the instance numbers in the Substitute() formulas</t>
+  </si>
+  <si>
+    <t>3rd Element</t>
+  </si>
+  <si>
+    <t>4th Element</t>
+  </si>
+  <si>
+    <t>Last Element - Different Formula</t>
+  </si>
+  <si>
+    <t>PPT_OBC_WIC_Session_1_Apr2018_MilkMob.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPoint: OBC-WIC Sesson </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explanation:
+The formula in C23: ="PDF: "&amp;SUBSTITUTE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MID(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -363,12 +385,132 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 1,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND(".",A23)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND("~",SUBSTITUTE(A23,"_","~",1))</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LEFT(A23,FIND(".",A23)-1))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Get our Extensionless Filename.
 </t>
     </r>
     <r>
@@ -408,7 +550,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Find the location of the period.
+      <t xml:space="preserve"> Find the location of the period (i.e. its character number).
 Subtract 1 from the result of </t>
     </r>
     <r>
@@ -534,7 +676,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> to replace the target instance of the delimiter with a character that is not in the string.
+      <t xml:space="preserve"> to replace the target instance of the delimiter with a character that we know is not in the string - in this case "~".
 We then use </t>
     </r>
     <r>
@@ -557,7 +699,27 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to return the postion of the substituted character.
-It returns the position of the character if finds.  The first underscore in A23 is at position 5.
+It returns the position of the character it finds.  The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tells it which instance to find.  The first underscore in A23 is at position 5, so it will return the number 5.
 </t>
     </r>
     <r>
@@ -620,134 +782,374 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) to use another underscore for our second delimiter.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
+      <t xml:space="preserve">) to use another underscore for our second delimiter.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>" target="_blank"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://myWebsite.com/adirOr2/</t>
+  </si>
+  <si>
+    <t>URL Prefix</t>
+  </si>
+  <si>
+    <t>Link Preview</t>
+  </si>
+  <si>
+    <t>Constructed URL</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Constructed Link Text</t>
+  </si>
+  <si>
+    <t>PPT_OBC_Session_1_Feb2018.zip</t>
+  </si>
+  <si>
+    <t>If needed, First Selector is different:</t>
+  </si>
+  <si>
+    <t>MID(A28,1,SEARCH("_",A28)-1)</t>
+  </si>
+  <si>
+    <t>If needed, Last Selector is different:</t>
+  </si>
+  <si>
+    <t>MID(C47,FIND("~",SUBSTITUTE(C47,"_","~",4))+1,7)</t>
+  </si>
+  <si>
+    <r>
+      <t>MID(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Finally, </t>
+      <t>,FIND("~"SUBSTITUTE(C45,"_","~",</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FirstDelim#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mid()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
+      <t>))+1,(FIND("~",SUBSTITUTE(C45,"_","~",</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecondDelim#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> will grab a specified number of characters moving right from a specified location in a string.
-We are giving </t>
+      <t>)))-(FIND("~",SUBSTITUTE(C45,"_","~",</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FirstDelim#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mid()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
+      <t>)))-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MID(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> our extentionless string and telling it to start at </t>
+      <t>,FIND("~",SUBSTITUTE(C45,"_","~",</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(the location of the first underscore + 1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
+      <t>))+1,(FIND("~",SUBSTITUTE(C45,"_","~",</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>)))-(FIND("~",SUBSTITUTE(C45,"_","~",</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)))-1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary of Delimiter Methods Used</t>
+  </si>
+  <si>
+    <t>Look at Prefix (first reference in Col C formula), the delimited strings are surrounded by "&amp;" after that.</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>E.g. 4th delimited string: FirstDelim# = 3, SecondDelim#=4.</t>
+  </si>
+  <si>
+    <t>Using delimiters can be very useful for this task.</t>
+  </si>
+  <si>
+    <t>URL - Other Text to be Grabbed by formula</t>
+  </si>
+  <si>
+    <t>Link Text Prefix</t>
+  </si>
+  <si>
+    <t>Here is an example of grabbing all the substrings (delimited by "_") in a filename</t>
+  </si>
+  <si>
+    <t>Substrings
+Cntrl+` to see formulas</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Get the filename without the extension</t>
+  </si>
+  <si>
+    <t>Re- combining all of these parts can be done if necessary, but it would be a massive formula.</t>
+  </si>
+  <si>
+    <r>
+      <t>Easier to put the static part(s) in a cell(s) and parse only the changes between the filenames.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here we start with filename: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPT_OBC_WIC_Session_1_Apr2018_MilkMob.zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and create link text: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PowerPoint: OBC-WIC Sesson Session - 1. 12 MB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by grabbing 2 of the delimited substrings:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(the number of characters to grab) = (the location of the period) - (the location of the first underscore) - 1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Apr2018".</t>
+    </r>
+  </si>
+  <si>
+    <t>Grab string between Delimiters:
+Notice that we only  need to change 3 numbers to specify the before/after delimiters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -762,18 +1164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -782,39 +1172,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0033CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0521F1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -834,30 +1192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -871,23 +1205,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF0033CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0521F1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1114,151 +1537,597 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF1E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAE2F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -1441,7 +2310,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1453,8 +2322,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8438032" y="145677"/>
-          <a:ext cx="4352381" cy="2386853"/>
+          <a:off x="13347889" y="145677"/>
+          <a:ext cx="4352381" cy="2387974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,13 +2352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11710148" y="1938618"/>
-          <a:ext cx="1725706" cy="403411"/>
+          <a:off x="16620005" y="1933015"/>
+          <a:ext cx="1516156" cy="410135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1547,13 +2416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="840442" y="381001"/>
-          <a:ext cx="5748618" cy="806822"/>
+          <a:ext cx="9281833" cy="806822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1784,787 +2653,1546 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>107256</xdr:colOff>
+      <xdr:colOff>1279071</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>58957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="107256" y="15694611"/>
-          <a:ext cx="5805571" cy="1838716"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FIND()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FIND()  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>returns the position (as a number) of the first occurrence of one text string inside another.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>If the text is not found, FIND() returns a #VALUE error.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FIND </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>is</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> case-sensitive and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>does not</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> support wildcards.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>=FIND (find_text, within_text, [start_num])</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Arguments</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>find_text</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The text to find.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>within_text</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The text to search within.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>start_num</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - [optional] The starting position in the text to search. Optional, defaults to 1.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>677182</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56623</xdr:rowOff>
+      <xdr:rowOff>99778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8287097</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>5187390</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33494</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11507107" y="15182323"/>
-          <a:ext cx="7609915" cy="1810278"/>
+          <a:off x="1279071" y="18142849"/>
+          <a:ext cx="16862319" cy="2927288"/>
+          <a:chOff x="176893" y="19108957"/>
+          <a:chExt cx="17329044" cy="1838716"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="176893" y="19108957"/>
+            <a:ext cx="5975137" cy="1838716"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Substitute()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Replaces text in a given string by matching</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>=SUBSTITUTE (text, old_text, new_text, [instance])</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Arguments </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The text to change.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>old_text</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The text to replace.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>new_text</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The text to replace with.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>instance</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - [optional] The instance of old_text to replace with new_text.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>If not supplied, all instances of old_text are replaced with new_text.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FIND()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FIND()  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>returns the position (as a number) of the first occurrence of one text string inside another.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>If the text is not found, FIND() returns a #VALUE error.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FIND </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>is</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> case-sensitive and </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>does not</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> support wildcards.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>=FIND (find_text, within_text, [start_num])</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Arguments</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>find_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to find.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>within_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to search within.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>start_num</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - [optional] The starting position in the text to search. Optional, defaults to 1.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11467647" y="19108957"/>
+            <a:ext cx="6038290" cy="1810278"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Substitute()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Replaces text in a given string by matching</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>=SUBSTITUTE (text, old_text, new_text, [instance])</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Arguments </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to change.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>old_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to replace.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>new_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to replace with.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>instance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - [optional] The instance of old_text to replace with new_text.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>If not supplied, all instances of old_text are replaced with new_text.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6382657" y="19108957"/>
+            <a:ext cx="4854364" cy="1472033"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MID()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Extracts a specified number of characters moving right from a specified location in a string.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>=MID (text, start_num, num_chars)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Arguments </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to extract from.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>start_num</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The location of the first character to extract.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>num_chars</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The number of characters to extract.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1401782</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>925285</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>126992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>527539</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
+      <xdr:colOff>4833604</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>60708</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5981109" y="15702274"/>
-          <a:ext cx="5382949" cy="1472033"/>
+          <a:off x="925285" y="13285099"/>
+          <a:ext cx="19869498" cy="2927288"/>
+          <a:chOff x="176893" y="19108957"/>
+          <a:chExt cx="17329044" cy="1838716"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="176893" y="19108957"/>
+            <a:ext cx="5975137" cy="1838716"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MID()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Extracts a specified number of characters moving right from a specified location in a string.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>=MID (text, start_num, num_chars)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Arguments </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>text</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The text to extract from.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>start_num</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The location of the first character to extract.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>num_chars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - The number of characters to extract.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FIND()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FIND()  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>returns the position (as a number) of the first occurrence of one text string inside another.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>If the text is not found, FIND() returns a #VALUE error.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FIND </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>is</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> case-sensitive and </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>does not</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> support wildcards.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>=FIND (find_text, within_text, [start_num])</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Arguments</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>find_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to find.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>within_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to search within.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>start_num</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - [optional] The starting position in the text to search. Optional, defaults to 1.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11467647" y="19108957"/>
+            <a:ext cx="6038290" cy="1810278"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Substitute()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Replaces text in a given string by matching</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>=SUBSTITUTE (text, old_text, new_text, [instance])</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Arguments </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to change.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>old_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to replace.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>new_text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to replace with.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>instance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - [optional] The instance of old_text to replace with new_text.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>If not supplied, all instances of old_text are replaced with new_text.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6382657" y="19108957"/>
+            <a:ext cx="4854364" cy="1472033"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MID()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Extracts a specified number of characters moving right from a specified location in a string.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>=MID (text, start_num, num_chars)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Arguments </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>text</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The text to extract from.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>start_num</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The location of the first character to extract.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr fontAlgn="base"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>num_chars</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> - The number of characters to extract.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2857,353 +4485,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="198.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="99" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="228.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="22" t="str">
         <f>"AddedData: "&amp;SUBSTITUTE((LEFT(A7,FIND(".",A7)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B7</f>
         <v>AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="23" t="str">
         <f t="shared" ref="D7:D15" si="0">$A$3&amp;A7&amp;$C$3&amp;C7&amp;"&lt;/a&gt;&lt;/br&gt;"</f>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Dogs.zip"target="_blank"&gt;AddedData: The Secret Life of Dogs&amp;nbsp; - &amp;nbsp;&lt;1 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E7" s="35" t="str">
+      <c r="E7" s="24" t="str">
         <f t="shared" ref="E7:E15" si="1">SUBSTITUTE(C7,"&amp;nbsp;","")</f>
         <v>AddedData: The Secret Life of Dogs - &lt;1 MB</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="22" t="str">
         <f t="shared" ref="C8:C14" si="2">"PowerPoint: "&amp;SUBSTITUTE((LEFT(A8,FIND(".",A8)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B8</f>
         <v>PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Cats.zip"target="_blank"&gt;PowerPoint: The Secret Life of Cats&amp;nbsp; - &amp;nbsp;12 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E8" s="35" t="str">
+      <c r="E8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>PowerPoint: The Secret Life of Cats - 12 MB</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:5" s="29" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="28" t="str">
         <f>"PDF: "&amp;SUBSTITUTE((LEFT(A9,FIND(".",A9)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B9</f>
         <v>PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Secret Life of Amoeba.pdf"target="_blank"&gt;PDF: The Secret Life of Amoeba&amp;nbsp; - &amp;nbsp;282 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E9" s="35" t="str">
+      <c r="E9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>PDF: The Secret Life of Amoeba - 282 MB</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="22" t="str">
         <f>"PDF: "&amp;SUBSTITUTE((LEFT(A10,FIND(".",A10)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B10</f>
         <v>PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/The Short but Influential Life of Flash.zip"target="_blank"&gt;PDF: The Short but Influential Life of Flash&amp;nbsp; - &amp;nbsp;110 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E10" s="35" t="str">
+      <c r="E10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>PDF: The Short but Influential Life of Flash - 110 MB</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="22" t="str">
         <f>SUBSTITUTE((LEFT(A11,FIND(".",A11)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B11</f>
         <v>Handout 1&amp;nbsp; - &amp;nbsp;242 MB</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_1.zip"target="_blank"&gt;Handout 1&amp;nbsp; - &amp;nbsp;242 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E11" s="35" t="str">
+      <c r="E11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Handout 1 - 242 MB</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="22" t="str">
         <f t="shared" ref="C12:C13" si="3">SUBSTITUTE((LEFT(A12,FIND(".",A12)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B12</f>
         <v>Handout 2&amp;nbsp; - &amp;nbsp;142 MB</v>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_2.zip"target="_blank"&gt;Handout 2&amp;nbsp; - &amp;nbsp;142 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E12" s="35" t="str">
+      <c r="E12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Handout 2 - 142 MB</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Handout 3&amp;nbsp; - &amp;nbsp;18 MB</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_3.zip"target="_blank"&gt;Handout 3&amp;nbsp; - &amp;nbsp;18 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E13" s="35" t="str">
+      <c r="E13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Handout 3 - 18 MB</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="22" t="str">
         <f t="shared" si="2"/>
         <v>PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4.zip"target="_blank"&gt;PowerPoint: Handout 4&amp;nbsp; - &amp;nbsp;243 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E14" s="35" t="str">
+      <c r="E14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>PowerPoint: Handout 4 - 243 MB</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="33" t="str">
         <f>"PowerPoint: "&amp;SUBSTITUTE((LEFT(A15,FIND(".",A15)-1)),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B15</f>
         <v>PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB</v>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="D15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href="http://aplaceontheweb.com/adir/Handout_4b.zip"target="_blank"&gt;PowerPoint: Handout 4b&amp;nbsp; - &amp;nbsp;13 MB&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-      <c r="E15" s="36" t="str">
+      <c r="E15" s="35" t="str">
         <f t="shared" si="1"/>
         <v>PowerPoint: Handout 4b - 13 MB</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:5" s="16" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:5" s="37" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
-    <row r="18" spans="1:5" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+    <row r="18" spans="1:5" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:5" s="38" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
     </row>
-    <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
+    <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="36"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:5" s="38" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:5" s="37" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="42" t="str">
-        <f>"PDF: "&amp;SUBSTITUTE(MID((LEFT(A23,FIND(".",A23)-1)),FIND("~",SUBSTITUTE(A23,"_","~",1)) + 1,FIND(".",A23) - FIND("~",SUBSTITUTE(A23,"_","~",1)) - 1),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23</f>
+      <c r="B23" s="40">
+        <v>4</v>
+      </c>
+      <c r="C23" s="41" t="str">
+        <f>"PDF: "&amp;SUBSTITUTE(MID((LEFT(A23,FIND(".",A23)-1)),FIND("~",SUBSTITUTE(A23,"_","~",1)) + 1,FIND(".",A23) - FIND("~",SUBSTITUTE(A23,"_","~",1)) - 1),"_"," ")&amp;"&amp;nbsp; - &amp;nbsp;"&amp;B23&amp;" MB"</f>
         <v>PDF: OBC WIC SpkrsNotes Apr2018 Session 2&amp;nbsp; - &amp;nbsp;4 MB</v>
       </c>
-      <c r="D23" s="43" t="str">
+      <c r="D23" s="40" t="str">
         <f>$A$3&amp;A23&amp;$C$3&amp;C23&amp;"&lt;/a&gt;"</f>
         <v>&lt;a href="http://aplaceontheweb.com/adir/MMob_OBC_WIC_SpkrsNotes_Apr2018_Session_2.zip"target="_blank"&gt;PDF: OBC WIC SpkrsNotes Apr2018 Session 2&amp;nbsp; - &amp;nbsp;4 MB&lt;/a&gt;</v>
       </c>
-      <c r="E23" s="44" t="str">
+      <c r="E23" s="42" t="str">
         <f t="shared" ref="E23" si="4">SUBSTITUTE(C23,"&amp;nbsp;","")</f>
         <v>PDF: OBC WIC SpkrsNotes Apr2018 Session 2 - 4 MB</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
-    <row r="25" spans="1:5" s="16" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+    <row r="25" spans="1:5" s="37" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
     </row>
-    <row r="26" spans="1:5" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+    <row r="26" spans="1:5" s="37" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A3:A10">
-    <sortCondition ref="A3:A10"/>
-  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A19:D19"/>
@@ -3212,121 +4840,106 @@
     <mergeCell ref="A26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:B15 A10:B10">
-    <cfRule type="expression" dxfId="23" priority="133">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15 A10:B10">
-    <cfRule type="expression" dxfId="22" priority="135">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15 A10:B10">
-    <cfRule type="expression" dxfId="21" priority="134">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8 B13 B11 A11:A15">
-    <cfRule type="expression" dxfId="20" priority="40">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8 B13 B11 A11:A15">
-    <cfRule type="expression" dxfId="19" priority="42">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8 B13 B11 A11:A15">
-    <cfRule type="expression" dxfId="18" priority="41">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="17" priority="34">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="16" priority="36">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="13" priority="30">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="12" priority="29">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="10" priority="27">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="9" priority="26">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="6" priority="23">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>MOD(ROW(),3)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MOD(ROW(),3)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),3)=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),3)=1</formula>
     </cfRule>
@@ -3335,4 +4948,328 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="99" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="131" style="38" customWidth="1"/>
+    <col min="4" max="4" width="143.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="37" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+    </row>
+    <row r="5" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="97" t="str">
+        <f>(LEFT(A4,FIND(".",A4)-1))</f>
+        <v>Session_1_MilkMob_OBCSpeakersNotes_Feb2018</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="97" t="str">
+        <f>MID(A4,1,SEARCH("_",A4)-1)</f>
+        <v>Session</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="97" t="str">
+        <f>MID(B5,FIND("~",SUBSTITUTE(B5,"_","~",1))+1,(FIND("~",SUBSTITUTE(B5,"_","~",2)))-(FIND("~",SUBSTITUTE(B5,"_","~",1)))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="97" t="str">
+        <f>MID(B5,FIND("~",SUBSTITUTE(A4,"_","~",2))+1,(FIND("~",SUBSTITUTE(A4,"_","~",3)))-(FIND("~",SUBSTITUTE(A4,"_","~",2)))-1)</f>
+        <v>MilkMob</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="97" t="str">
+        <f>MID(B5,FIND("~",SUBSTITUTE(A4,"_","~",3))+1,(FIND("~",SUBSTITUTE(A4,"_","~",4)))-(FIND("~",SUBSTITUTE(A4,"_","~",3)))-1)</f>
+        <v>OBCSpeakersNotes</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="37" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="99" t="str">
+        <f>MID(B5,FIND("~",SUBSTITUTE(B5,"_","~",4))+1,LEN(B5))</f>
+        <v>Feb2018</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="37" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="37" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="37" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="60">
+        <v>12</v>
+      </c>
+      <c r="C17" s="61" t="str">
+        <f>C15&amp;MID(A17,FIND("~",SUBSTITUTE(A17,"_","~",4))+1,(FIND("~",SUBSTITUTE(A17,"_","~",5)))-(FIND("~",SUBSTITUTE(A17,"_","~",4)))-1)&amp;" - "&amp;MID(A17,FIND("~",SUBSTITUTE(A17,"_","~",5))+1,(FIND("~",SUBSTITUTE(A17,"_","~",6)))-(FIND("~",SUBSTITUTE(A17,"_","~",5)))-1)&amp;". &amp;nbsp;"&amp;B17&amp;" MB"</f>
+        <v>PowerPoint: OBC-WIC Sesson 1 - Apr2018. &amp;nbsp;12 MB</v>
+      </c>
+      <c r="D17" s="61" t="str">
+        <f>$A$15&amp;A17&amp;$D$15&amp;C17&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href="http://myWebsite.com/adirOr2/PPT_OBC_WIC_Session_1_Apr2018_MilkMob.zip" target="_blank"&gt;PowerPoint: OBC-WIC Sesson 1 - Apr2018. &amp;nbsp;12 MB&lt;/a&gt;</v>
+      </c>
+      <c r="E17" s="47" t="str">
+        <f t="shared" ref="E17" si="0">SUBSTITUTE(C17,"&amp;nbsp;","")</f>
+        <v>PowerPoint: OBC-WIC Sesson 1 - Apr2018. 12 MB</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="51"/>
+    </row>
+    <row r="21" spans="1:5" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="51"/>
+      <c r="C21" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" s="52" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="91" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="102"/>
+      <c r="D23" s="90"/>
+    </row>
+    <row r="24" spans="1:5" s="91" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="55" t="str">
+        <f>MID(C21,FIND("~",SUBSTITUTE(C21,"_","~",3))+1,(FIND("~",SUBSTITUTE(C21,"_","~",4)))-(FIND("~",SUBSTITUTE(C21,"_","~",3)))-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="91" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="92" t="str">
+        <f>MID(C21,1,SEARCH("_",C21)-1)</f>
+        <v>PPT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="91" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="94" t="str">
+        <f>MID(C21,FIND("~",SUBSTITUTE(C21,"_","~",4))+1,7)</f>
+        <v>Feb2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:A10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
+  <mergeCells count="14">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>